--- a/mim_startex/outs/U F PO111092 - 101423 ARJUN - ECOM.xlsx
+++ b/mim_startex/outs/U F PO111092 - 101423 ARJUN - ECOM.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W231"/>
+  <dimension ref="A1:X231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -549,6 +549,11 @@
           <t>Barcode</t>
         </is>
       </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Total Qty.</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -656,6 +661,11 @@
           <t>5711703315180</t>
         </is>
       </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -763,6 +773,11 @@
           <t>5711703315197</t>
         </is>
       </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -870,6 +885,11 @@
           <t>5711703315203</t>
         </is>
       </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -977,6 +997,11 @@
           <t>5711703315210</t>
         </is>
       </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1084,6 +1109,11 @@
           <t>5711703315227</t>
         </is>
       </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1191,6 +1221,11 @@
           <t>5711703315180</t>
         </is>
       </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1298,6 +1333,11 @@
           <t>5711703315197</t>
         </is>
       </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1405,6 +1445,11 @@
           <t>5711703315203</t>
         </is>
       </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1512,6 +1557,11 @@
           <t>5711703315210</t>
         </is>
       </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1619,6 +1669,11 @@
           <t>5711703315227</t>
         </is>
       </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1726,6 +1781,11 @@
           <t>5711703315180</t>
         </is>
       </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1833,6 +1893,11 @@
           <t>5711703315197</t>
         </is>
       </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1940,6 +2005,11 @@
           <t>5711703315203</t>
         </is>
       </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2047,6 +2117,11 @@
           <t>5711703315210</t>
         </is>
       </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2154,6 +2229,11 @@
           <t>5711703315227</t>
         </is>
       </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2261,6 +2341,11 @@
           <t>5711703315180</t>
         </is>
       </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2368,6 +2453,11 @@
           <t>5711703315197</t>
         </is>
       </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2475,6 +2565,11 @@
           <t>5711703315203</t>
         </is>
       </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2582,6 +2677,11 @@
           <t>5711703315210</t>
         </is>
       </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2689,6 +2789,11 @@
           <t>5711703315227</t>
         </is>
       </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2796,6 +2901,11 @@
           <t>5711703315180</t>
         </is>
       </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2903,6 +3013,11 @@
           <t>5711703315197</t>
         </is>
       </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3010,6 +3125,11 @@
           <t>5711703315203</t>
         </is>
       </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3117,6 +3237,11 @@
           <t>5711703315210</t>
         </is>
       </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3224,6 +3349,11 @@
           <t>5711703315227</t>
         </is>
       </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3331,6 +3461,11 @@
           <t>5711703352604</t>
         </is>
       </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3438,6 +3573,11 @@
           <t>5711703352611</t>
         </is>
       </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3545,6 +3685,11 @@
           <t>5711703352628</t>
         </is>
       </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3652,6 +3797,11 @@
           <t>5711703352635</t>
         </is>
       </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3759,6 +3909,11 @@
           <t>5711703352642</t>
         </is>
       </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3866,6 +4021,11 @@
           <t>5711703352604</t>
         </is>
       </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3973,6 +4133,11 @@
           <t>5711703352611</t>
         </is>
       </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4080,6 +4245,11 @@
           <t>5711703352628</t>
         </is>
       </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4187,6 +4357,11 @@
           <t>5711703352635</t>
         </is>
       </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4294,6 +4469,11 @@
           <t>5711703352642</t>
         </is>
       </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4401,6 +4581,11 @@
           <t>5711703352604</t>
         </is>
       </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4508,6 +4693,11 @@
           <t>5711703352611</t>
         </is>
       </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4615,6 +4805,11 @@
           <t>5711703352628</t>
         </is>
       </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -4722,6 +4917,11 @@
           <t>5711703352635</t>
         </is>
       </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -4829,6 +5029,11 @@
           <t>5711703352642</t>
         </is>
       </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4936,6 +5141,11 @@
           <t>5711703352604</t>
         </is>
       </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -5043,6 +5253,11 @@
           <t>5711703352611</t>
         </is>
       </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -5150,6 +5365,11 @@
           <t>5711703352628</t>
         </is>
       </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -5257,6 +5477,11 @@
           <t>5711703352635</t>
         </is>
       </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -5364,6 +5589,11 @@
           <t>5711703352642</t>
         </is>
       </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -5471,6 +5701,11 @@
           <t>5711703352604</t>
         </is>
       </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -5578,6 +5813,11 @@
           <t>5711703352611</t>
         </is>
       </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -5685,6 +5925,11 @@
           <t>5711703352628</t>
         </is>
       </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -5792,6 +6037,11 @@
           <t>5711703352635</t>
         </is>
       </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -5899,6 +6149,11 @@
           <t>5711703352642</t>
         </is>
       </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -6006,6 +6261,11 @@
           <t>5715524475238</t>
         </is>
       </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -6113,6 +6373,11 @@
           <t>5715524475245</t>
         </is>
       </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -6220,6 +6485,11 @@
           <t>5715524475252</t>
         </is>
       </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -6327,6 +6597,11 @@
           <t>5715524475269</t>
         </is>
       </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -6434,6 +6709,11 @@
           <t>5715524475276</t>
         </is>
       </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -6541,6 +6821,11 @@
           <t>5715524475238</t>
         </is>
       </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -6648,6 +6933,11 @@
           <t>5715524475245</t>
         </is>
       </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -6755,6 +7045,11 @@
           <t>5715524475252</t>
         </is>
       </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -6862,6 +7157,11 @@
           <t>5715524475269</t>
         </is>
       </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -6969,6 +7269,11 @@
           <t>5715524475276</t>
         </is>
       </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -7076,6 +7381,11 @@
           <t>5715524475238</t>
         </is>
       </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -7183,6 +7493,11 @@
           <t>5715524475245</t>
         </is>
       </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -7290,6 +7605,11 @@
           <t>5715524475252</t>
         </is>
       </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -7397,6 +7717,11 @@
           <t>5715524475269</t>
         </is>
       </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -7504,6 +7829,11 @@
           <t>5715524475276</t>
         </is>
       </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -7611,6 +7941,11 @@
           <t>5715524475238</t>
         </is>
       </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -7718,6 +8053,11 @@
           <t>5715524475245</t>
         </is>
       </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -7825,6 +8165,11 @@
           <t>5715524475252</t>
         </is>
       </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -7932,6 +8277,11 @@
           <t>5715524475269</t>
         </is>
       </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -8039,6 +8389,11 @@
           <t>5715524475276</t>
         </is>
       </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -8146,6 +8501,11 @@
           <t>5715524475238</t>
         </is>
       </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -8253,6 +8613,11 @@
           <t>5715524475245</t>
         </is>
       </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -8360,6 +8725,11 @@
           <t>5715524475252</t>
         </is>
       </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -8467,6 +8837,11 @@
           <t>5715524475269</t>
         </is>
       </c>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -8574,6 +8949,11 @@
           <t>5715524475276</t>
         </is>
       </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -8681,6 +9061,11 @@
           <t>5715524357282</t>
         </is>
       </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -8788,6 +9173,11 @@
           <t>5715524357299</t>
         </is>
       </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -8895,6 +9285,11 @@
           <t>5715524357305</t>
         </is>
       </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -9002,6 +9397,11 @@
           <t>5715524357312</t>
         </is>
       </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -9109,6 +9509,11 @@
           <t>5715524357329</t>
         </is>
       </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -9216,6 +9621,11 @@
           <t>5715524357282</t>
         </is>
       </c>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -9323,6 +9733,11 @@
           <t>5715524357299</t>
         </is>
       </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -9430,6 +9845,11 @@
           <t>5715524357305</t>
         </is>
       </c>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -9537,6 +9957,11 @@
           <t>5715524357312</t>
         </is>
       </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -9644,6 +10069,11 @@
           <t>5715524357329</t>
         </is>
       </c>
+      <c r="X86" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -9751,6 +10181,11 @@
           <t>5715524357282</t>
         </is>
       </c>
+      <c r="X87" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -9858,6 +10293,11 @@
           <t>5715524357299</t>
         </is>
       </c>
+      <c r="X88" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -9965,6 +10405,11 @@
           <t>5715524357305</t>
         </is>
       </c>
+      <c r="X89" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -10072,6 +10517,11 @@
           <t>5715524357312</t>
         </is>
       </c>
+      <c r="X90" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -10179,6 +10629,11 @@
           <t>5715524357329</t>
         </is>
       </c>
+      <c r="X91" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -10286,6 +10741,11 @@
           <t>5715524357282</t>
         </is>
       </c>
+      <c r="X92" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -10393,6 +10853,11 @@
           <t>5715524357299</t>
         </is>
       </c>
+      <c r="X93" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -10500,6 +10965,11 @@
           <t>5715524357305</t>
         </is>
       </c>
+      <c r="X94" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -10607,6 +11077,11 @@
           <t>5715524357312</t>
         </is>
       </c>
+      <c r="X95" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -10714,6 +11189,11 @@
           <t>5715524357329</t>
         </is>
       </c>
+      <c r="X96" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -10821,6 +11301,11 @@
           <t>5715524357282</t>
         </is>
       </c>
+      <c r="X97" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -10928,6 +11413,11 @@
           <t>5715524357299</t>
         </is>
       </c>
+      <c r="X98" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -11035,6 +11525,11 @@
           <t>5715524357305</t>
         </is>
       </c>
+      <c r="X99" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -11142,6 +11637,11 @@
           <t>5715524357312</t>
         </is>
       </c>
+      <c r="X100" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -11249,6 +11749,11 @@
           <t>5715524357329</t>
         </is>
       </c>
+      <c r="X101" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -11356,6 +11861,11 @@
           <t>5715524476358</t>
         </is>
       </c>
+      <c r="X102" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -11463,6 +11973,11 @@
           <t>5715524476365</t>
         </is>
       </c>
+      <c r="X103" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -11570,6 +12085,11 @@
           <t>5715524476372</t>
         </is>
       </c>
+      <c r="X104" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -11677,6 +12197,11 @@
           <t>5715524476389</t>
         </is>
       </c>
+      <c r="X105" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -11784,6 +12309,11 @@
           <t>5715524476396</t>
         </is>
       </c>
+      <c r="X106" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -11891,6 +12421,11 @@
           <t>5715524476358</t>
         </is>
       </c>
+      <c r="X107" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -11998,6 +12533,11 @@
           <t>5715524476365</t>
         </is>
       </c>
+      <c r="X108" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -12105,6 +12645,11 @@
           <t>5715524476372</t>
         </is>
       </c>
+      <c r="X109" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -12212,6 +12757,11 @@
           <t>5715524476389</t>
         </is>
       </c>
+      <c r="X110" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -12319,6 +12869,11 @@
           <t>5715524476396</t>
         </is>
       </c>
+      <c r="X111" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -12426,6 +12981,11 @@
           <t>5715524476358</t>
         </is>
       </c>
+      <c r="X112" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -12533,6 +13093,11 @@
           <t>5715524476365</t>
         </is>
       </c>
+      <c r="X113" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -12640,6 +13205,11 @@
           <t>5715524476372</t>
         </is>
       </c>
+      <c r="X114" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -12747,6 +13317,11 @@
           <t>5715524476389</t>
         </is>
       </c>
+      <c r="X115" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -12854,6 +13429,11 @@
           <t>5715524476396</t>
         </is>
       </c>
+      <c r="X116" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -12961,6 +13541,11 @@
           <t>5715524476358</t>
         </is>
       </c>
+      <c r="X117" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -13068,6 +13653,11 @@
           <t>5715524476365</t>
         </is>
       </c>
+      <c r="X118" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -13175,6 +13765,11 @@
           <t>5715524476372</t>
         </is>
       </c>
+      <c r="X119" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -13282,6 +13877,11 @@
           <t>5715524476389</t>
         </is>
       </c>
+      <c r="X120" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -13389,6 +13989,11 @@
           <t>5715524476396</t>
         </is>
       </c>
+      <c r="X121" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -13496,6 +14101,11 @@
           <t>5715524476358</t>
         </is>
       </c>
+      <c r="X122" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -13603,6 +14213,11 @@
           <t>5715524476365</t>
         </is>
       </c>
+      <c r="X123" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -13710,6 +14325,11 @@
           <t>5715524476372</t>
         </is>
       </c>
+      <c r="X124" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -13817,6 +14437,11 @@
           <t>5715524476389</t>
         </is>
       </c>
+      <c r="X125" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -13924,6 +14549,11 @@
           <t>5715524476396</t>
         </is>
       </c>
+      <c r="X126" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -14031,6 +14661,11 @@
           <t>5715524476358</t>
         </is>
       </c>
+      <c r="X127" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -14138,6 +14773,11 @@
           <t>5715524476365</t>
         </is>
       </c>
+      <c r="X128" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -14245,6 +14885,11 @@
           <t>5715524476372</t>
         </is>
       </c>
+      <c r="X129" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -14352,6 +14997,11 @@
           <t>5715524476389</t>
         </is>
       </c>
+      <c r="X130" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -14459,6 +15109,11 @@
           <t>5715524476396</t>
         </is>
       </c>
+      <c r="X131" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -14566,6 +15221,11 @@
           <t>5711703453646</t>
         </is>
       </c>
+      <c r="X132" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -14673,6 +15333,11 @@
           <t>5711703453653</t>
         </is>
       </c>
+      <c r="X133" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -14780,6 +15445,11 @@
           <t>5711703453660</t>
         </is>
       </c>
+      <c r="X134" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -14887,6 +15557,11 @@
           <t>5711703453677</t>
         </is>
       </c>
+      <c r="X135" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -14994,6 +15669,11 @@
           <t>5711703453684</t>
         </is>
       </c>
+      <c r="X136" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -15101,6 +15781,11 @@
           <t>5711703453646</t>
         </is>
       </c>
+      <c r="X137" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -15208,6 +15893,11 @@
           <t>5711703453653</t>
         </is>
       </c>
+      <c r="X138" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -15315,6 +16005,11 @@
           <t>5711703453660</t>
         </is>
       </c>
+      <c r="X139" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -15422,6 +16117,11 @@
           <t>5711703453677</t>
         </is>
       </c>
+      <c r="X140" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -15529,6 +16229,11 @@
           <t>5711703453684</t>
         </is>
       </c>
+      <c r="X141" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -15636,6 +16341,11 @@
           <t>5711703453646</t>
         </is>
       </c>
+      <c r="X142" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -15743,6 +16453,11 @@
           <t>5711703453653</t>
         </is>
       </c>
+      <c r="X143" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -15850,6 +16565,11 @@
           <t>5711703453660</t>
         </is>
       </c>
+      <c r="X144" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -15957,6 +16677,11 @@
           <t>5711703453677</t>
         </is>
       </c>
+      <c r="X145" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -16064,6 +16789,11 @@
           <t>5711703453684</t>
         </is>
       </c>
+      <c r="X146" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -16171,6 +16901,11 @@
           <t>5711703453646</t>
         </is>
       </c>
+      <c r="X147" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -16278,6 +17013,11 @@
           <t>5711703453653</t>
         </is>
       </c>
+      <c r="X148" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -16385,6 +17125,11 @@
           <t>5711703453660</t>
         </is>
       </c>
+      <c r="X149" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -16492,6 +17237,11 @@
           <t>5711703453677</t>
         </is>
       </c>
+      <c r="X150" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -16599,6 +17349,11 @@
           <t>5711703453684</t>
         </is>
       </c>
+      <c r="X151" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -16706,6 +17461,11 @@
           <t>5711703453646</t>
         </is>
       </c>
+      <c r="X152" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -16813,6 +17573,11 @@
           <t>5711703453653</t>
         </is>
       </c>
+      <c r="X153" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -16920,6 +17685,11 @@
           <t>5711703453660</t>
         </is>
       </c>
+      <c r="X154" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -17027,6 +17797,11 @@
           <t>5711703453677</t>
         </is>
       </c>
+      <c r="X155" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -17134,6 +17909,11 @@
           <t>5711703453684</t>
         </is>
       </c>
+      <c r="X156" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -17241,6 +18021,11 @@
           <t>5711703407533</t>
         </is>
       </c>
+      <c r="X157" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -17348,6 +18133,11 @@
           <t>5711703407540</t>
         </is>
       </c>
+      <c r="X158" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -17455,6 +18245,11 @@
           <t>5711703407557</t>
         </is>
       </c>
+      <c r="X159" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -17562,6 +18357,11 @@
           <t>5711703407564</t>
         </is>
       </c>
+      <c r="X160" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -17669,6 +18469,11 @@
           <t>5711703407571</t>
         </is>
       </c>
+      <c r="X161" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -17776,6 +18581,11 @@
           <t>5711703407533</t>
         </is>
       </c>
+      <c r="X162" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -17883,6 +18693,11 @@
           <t>5711703407540</t>
         </is>
       </c>
+      <c r="X163" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -17990,6 +18805,11 @@
           <t>5711703407557</t>
         </is>
       </c>
+      <c r="X164" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -18097,6 +18917,11 @@
           <t>5711703407564</t>
         </is>
       </c>
+      <c r="X165" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -18204,6 +19029,11 @@
           <t>5711703407571</t>
         </is>
       </c>
+      <c r="X166" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -18311,6 +19141,11 @@
           <t>5711703407533</t>
         </is>
       </c>
+      <c r="X167" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -18418,6 +19253,11 @@
           <t>5711703407540</t>
         </is>
       </c>
+      <c r="X168" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -18525,6 +19365,11 @@
           <t>5711703407557</t>
         </is>
       </c>
+      <c r="X169" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -18632,6 +19477,11 @@
           <t>5711703407564</t>
         </is>
       </c>
+      <c r="X170" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -18739,6 +19589,11 @@
           <t>5711703407571</t>
         </is>
       </c>
+      <c r="X171" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -18846,6 +19701,11 @@
           <t>5711703407533</t>
         </is>
       </c>
+      <c r="X172" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -18953,6 +19813,11 @@
           <t>5711703407540</t>
         </is>
       </c>
+      <c r="X173" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -19060,6 +19925,11 @@
           <t>5711703407557</t>
         </is>
       </c>
+      <c r="X174" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -19167,6 +20037,11 @@
           <t>5711703407564</t>
         </is>
       </c>
+      <c r="X175" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -19274,6 +20149,11 @@
           <t>5711703407571</t>
         </is>
       </c>
+      <c r="X176" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -19381,6 +20261,11 @@
           <t>5711703407533</t>
         </is>
       </c>
+      <c r="X177" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -19488,6 +20373,11 @@
           <t>5711703407540</t>
         </is>
       </c>
+      <c r="X178" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -19595,6 +20485,11 @@
           <t>5711703407557</t>
         </is>
       </c>
+      <c r="X179" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -19702,6 +20597,11 @@
           <t>5711703407564</t>
         </is>
       </c>
+      <c r="X180" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -19809,6 +20709,11 @@
           <t>5711703407571</t>
         </is>
       </c>
+      <c r="X181" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -19916,6 +20821,11 @@
           <t>5711703315364</t>
         </is>
       </c>
+      <c r="X182" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -20023,6 +20933,11 @@
           <t>5711703315371</t>
         </is>
       </c>
+      <c r="X183" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -20130,6 +21045,11 @@
           <t>5711703315388</t>
         </is>
       </c>
+      <c r="X184" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -20237,6 +21157,11 @@
           <t>5711703315395</t>
         </is>
       </c>
+      <c r="X185" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -20344,6 +21269,11 @@
           <t>5711703315401</t>
         </is>
       </c>
+      <c r="X186" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -20451,6 +21381,11 @@
           <t>5711703315364</t>
         </is>
       </c>
+      <c r="X187" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -20558,6 +21493,11 @@
           <t>5711703315371</t>
         </is>
       </c>
+      <c r="X188" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -20665,6 +21605,11 @@
           <t>5711703315388</t>
         </is>
       </c>
+      <c r="X189" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -20772,6 +21717,11 @@
           <t>5711703315395</t>
         </is>
       </c>
+      <c r="X190" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -20879,6 +21829,11 @@
           <t>5711703315401</t>
         </is>
       </c>
+      <c r="X191" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -20986,6 +21941,11 @@
           <t>5711703315364</t>
         </is>
       </c>
+      <c r="X192" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -21093,6 +22053,11 @@
           <t>5711703315371</t>
         </is>
       </c>
+      <c r="X193" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -21200,6 +22165,11 @@
           <t>5711703315388</t>
         </is>
       </c>
+      <c r="X194" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -21307,6 +22277,11 @@
           <t>5711703315395</t>
         </is>
       </c>
+      <c r="X195" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -21414,6 +22389,11 @@
           <t>5711703315401</t>
         </is>
       </c>
+      <c r="X196" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -21521,6 +22501,11 @@
           <t>5711703315364</t>
         </is>
       </c>
+      <c r="X197" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -21628,6 +22613,11 @@
           <t>5711703315371</t>
         </is>
       </c>
+      <c r="X198" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -21735,6 +22725,11 @@
           <t>5711703315388</t>
         </is>
       </c>
+      <c r="X199" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -21842,6 +22837,11 @@
           <t>5711703315395</t>
         </is>
       </c>
+      <c r="X200" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -21949,6 +22949,11 @@
           <t>5711703315401</t>
         </is>
       </c>
+      <c r="X201" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -22056,6 +23061,11 @@
           <t>5711703315364</t>
         </is>
       </c>
+      <c r="X202" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -22163,6 +23173,11 @@
           <t>5711703315371</t>
         </is>
       </c>
+      <c r="X203" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -22270,6 +23285,11 @@
           <t>5711703315388</t>
         </is>
       </c>
+      <c r="X204" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -22377,6 +23397,11 @@
           <t>5711703315395</t>
         </is>
       </c>
+      <c r="X205" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -22484,6 +23509,11 @@
           <t>5711703315401</t>
         </is>
       </c>
+      <c r="X206" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -22591,6 +23621,11 @@
           <t>5711704085815</t>
         </is>
       </c>
+      <c r="X207" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -22698,6 +23733,11 @@
           <t>5711704085822</t>
         </is>
       </c>
+      <c r="X208" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -22805,6 +23845,11 @@
           <t>5711704085839</t>
         </is>
       </c>
+      <c r="X209" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -22912,6 +23957,11 @@
           <t>5711704085846</t>
         </is>
       </c>
+      <c r="X210" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -23019,6 +24069,11 @@
           <t>5711704085853</t>
         </is>
       </c>
+      <c r="X211" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -23126,6 +24181,11 @@
           <t>5711704085815</t>
         </is>
       </c>
+      <c r="X212" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -23233,6 +24293,11 @@
           <t>5711704085822</t>
         </is>
       </c>
+      <c r="X213" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -23340,6 +24405,11 @@
           <t>5711704085839</t>
         </is>
       </c>
+      <c r="X214" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -23447,6 +24517,11 @@
           <t>5711704085846</t>
         </is>
       </c>
+      <c r="X215" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -23554,6 +24629,11 @@
           <t>5711704085853</t>
         </is>
       </c>
+      <c r="X216" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -23661,6 +24741,11 @@
           <t>5711704085815</t>
         </is>
       </c>
+      <c r="X217" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -23768,6 +24853,11 @@
           <t>5711704085822</t>
         </is>
       </c>
+      <c r="X218" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -23875,6 +24965,11 @@
           <t>5711704085839</t>
         </is>
       </c>
+      <c r="X219" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -23982,6 +25077,11 @@
           <t>5711704085846</t>
         </is>
       </c>
+      <c r="X220" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -24089,6 +25189,11 @@
           <t>5711704085853</t>
         </is>
       </c>
+      <c r="X221" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -24196,6 +25301,11 @@
           <t>5711704085815</t>
         </is>
       </c>
+      <c r="X222" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -24303,6 +25413,11 @@
           <t>5711704085822</t>
         </is>
       </c>
+      <c r="X223" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -24410,6 +25525,11 @@
           <t>5711704085839</t>
         </is>
       </c>
+      <c r="X224" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -24517,6 +25637,11 @@
           <t>5711704085846</t>
         </is>
       </c>
+      <c r="X225" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -24624,6 +25749,11 @@
           <t>5711704085853</t>
         </is>
       </c>
+      <c r="X226" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -24731,6 +25861,11 @@
           <t>5711704085815</t>
         </is>
       </c>
+      <c r="X227" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -24838,6 +25973,11 @@
           <t>5711704085822</t>
         </is>
       </c>
+      <c r="X228" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -24945,6 +26085,11 @@
           <t>5711704085839</t>
         </is>
       </c>
+      <c r="X229" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -25052,6 +26197,11 @@
           <t>5711704085846</t>
         </is>
       </c>
+      <c r="X230" t="inlineStr">
+        <is>
+          <t>14904</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -25157,6 +26307,11 @@
       <c r="W231" t="inlineStr">
         <is>
           <t>5711704085853</t>
+        </is>
+      </c>
+      <c r="X231" t="inlineStr">
+        <is>
+          <t>14904</t>
         </is>
       </c>
     </row>
